--- a/data/trans_dic/IMC_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Provincia-trans_dic.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con sobrepeso u obesidad (tasa de respuesta: 96,87%)</t>
+          <t>Población con obesidad (tasa de respuesta: 96,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1939,7 +1939,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con sobrepeso u obesidad (tasa de respuesta: 96,87%)</t>
+          <t>Población con obesidad (tasa de respuesta: 96,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/IMC_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.1793307716269604</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.1728161889999677</v>
+        <v>0.1728161889999678</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.08354094837761829</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.06531537296659246</v>
+        <v>0.06533499588897548</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1635098231331813</v>
+        <v>0.1607233303473539</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1328361395136534</v>
+        <v>0.1342848608410417</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1356093545271373</v>
+        <v>0.1369990920938256</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05313739944093422</v>
+        <v>0.05451963067241262</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1546538747721394</v>
+        <v>0.1503755127456761</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1017814508184547</v>
+        <v>0.1016155969027511</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1671463713672444</v>
+        <v>0.1658590903465589</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.06745166609902441</v>
+        <v>0.06628039425390508</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1705730234361313</v>
+        <v>0.1715527062200082</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1307716998990183</v>
+        <v>0.1280793167295901</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1581087633730127</v>
+        <v>0.1603151017599568</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1401059920296659</v>
+        <v>0.1460664111425939</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2659716502483995</v>
+        <v>0.2608943195972593</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2308018413473662</v>
+        <v>0.2267122539026655</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2223810553066374</v>
+        <v>0.2197445940760256</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1267933028031864</v>
+        <v>0.1200890791511739</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2535591318136032</v>
+        <v>0.2551111439370972</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1863567732880714</v>
+        <v>0.1859395247930511</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2400494451366628</v>
+        <v>0.2385418739220853</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1196797095154751</v>
+        <v>0.11580459097569</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2438643826046767</v>
+        <v>0.2439972759179424</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1936559244458826</v>
+        <v>0.1948833864541164</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2144291901681795</v>
+        <v>0.213753181940449</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.110083826074969</v>
+        <v>0.109023450859546</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1176031697037547</v>
+        <v>0.1169632339563465</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1133003945087308</v>
+        <v>0.116359622051095</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1698774370018989</v>
+        <v>0.1653310106867358</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1387914504477774</v>
+        <v>0.140220147803578</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1663077618183874</v>
+        <v>0.1679420412843162</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1869573540826454</v>
+        <v>0.1840297115650696</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1214830039632048</v>
+        <v>0.1185929324678097</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1329959214848322</v>
+        <v>0.1347432844055435</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1522641748216387</v>
+        <v>0.1503920592632854</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1595694373788093</v>
+        <v>0.1613436872636603</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1512199275907017</v>
+        <v>0.1528333156514906</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1749424643095697</v>
+        <v>0.1765947921853821</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1864728997369191</v>
+        <v>0.1863521924687729</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1787760242916904</v>
+        <v>0.1794069584462136</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2528008190167755</v>
+        <v>0.2513928866046005</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2087298715208553</v>
+        <v>0.2056957648744326</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2398936456939478</v>
+        <v>0.2393762838286745</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2630260253725967</v>
+        <v>0.2651613289106186</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1741690661241731</v>
+        <v>0.1753647936305285</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1809810470974771</v>
+        <v>0.1802157973284242</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2034572054865917</v>
+        <v>0.2002657499100145</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2112134543960396</v>
+        <v>0.2110790945206074</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2016871608880677</v>
+        <v>0.2007545536163307</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.1733831026167754</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2198956041118873</v>
+        <v>0.2198956041118874</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05760011129365206</v>
+        <v>0.05527218285618669</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1240154239273282</v>
+        <v>0.1244629756822757</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1356504092159193</v>
+        <v>0.1327505412369892</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.171434394376068</v>
+        <v>0.172929605684534</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1064788303033043</v>
+        <v>0.1089220018393701</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1854184740891755</v>
+        <v>0.1836694677518377</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1332746826751513</v>
+        <v>0.1402930984887502</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1935997065930338</v>
+        <v>0.1901421242605863</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.09102117145863793</v>
+        <v>0.09035534905005503</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1654922379696578</v>
+        <v>0.1672428816366196</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1436046479754416</v>
+        <v>0.1445305098999579</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1924475082495484</v>
+        <v>0.1925931065048992</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1194372281055059</v>
+        <v>0.1197787477764062</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2028541914097001</v>
+        <v>0.2053492112292109</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2155204623635099</v>
+        <v>0.2158371268164392</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2586937408525135</v>
+        <v>0.2554067182639884</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1875475801548346</v>
+        <v>0.1861840140367736</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2782763440100274</v>
+        <v>0.2748361732889042</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.219588368694132</v>
+        <v>0.223397947082366</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2646669888755229</v>
+        <v>0.2668834939041439</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1401273695251634</v>
+        <v>0.1409476214258475</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2280204221133538</v>
+        <v>0.2277831790095427</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2043046020973414</v>
+        <v>0.2046586374996688</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2482475547141602</v>
+        <v>0.2491047654981469</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06641865165294421</v>
+        <v>0.06704770100134107</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1478650040470845</v>
+        <v>0.1513662178959378</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1776146134259648</v>
+        <v>0.1758198497415477</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08515685175386373</v>
+        <v>0.08952423476175181</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.09202886883377208</v>
+        <v>0.09166421564591819</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2054523159841435</v>
+        <v>0.2045500588645444</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1624659134976406</v>
+        <v>0.1601543973423654</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1324966943265759</v>
+        <v>0.1336232986823886</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.08633483923667359</v>
+        <v>0.08551600917369054</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1889448008724998</v>
+        <v>0.1875944986891235</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1825244684769226</v>
+        <v>0.1821156393273177</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1221542305351185</v>
+        <v>0.1238596067584149</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1253501244967039</v>
+        <v>0.127059525802437</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2377910024273069</v>
+        <v>0.2346980877315335</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2643075761359426</v>
+        <v>0.2655198675697146</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1685857635360431</v>
+        <v>0.1743445226246205</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1535108515469695</v>
+        <v>0.1577100634628758</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2985845205323335</v>
+        <v>0.303176973757113</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2499266581110721</v>
+        <v>0.2458836447028745</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2084277697064496</v>
+        <v>0.2077247821549028</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1307889073190998</v>
+        <v>0.1299905740594474</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2550703125740613</v>
+        <v>0.252289669878851</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2446566705927277</v>
+        <v>0.2455624557599598</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1777448060920815</v>
+        <v>0.1796956753435598</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1108140899370492</v>
+        <v>0.1110546438586406</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1385471978047532</v>
+        <v>0.1435894230163207</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1002225298185443</v>
+        <v>0.09811583319308069</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0732911944716836</v>
+        <v>0.07695449510118384</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1493354154770822</v>
+        <v>0.1514164644925237</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1342750179054363</v>
+        <v>0.1415430807965515</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.185675277129825</v>
+        <v>0.1849604721452524</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1177802760821138</v>
+        <v>0.114571256649735</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1438796429911433</v>
+        <v>0.1442928755246883</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1563974277181055</v>
+        <v>0.153521611488536</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1574371236448509</v>
+        <v>0.1560711158119499</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1074163012734226</v>
+        <v>0.1055517539757838</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.217352094415712</v>
+        <v>0.2148026068739191</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.25649129708855</v>
+        <v>0.2559391668968834</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1949249183968665</v>
+        <v>0.1989530693848712</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1496325566642335</v>
+        <v>0.1518756446504211</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2655903007121955</v>
+        <v>0.2683191065799528</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2555287798197352</v>
+        <v>0.2549059893650923</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3016636942279844</v>
+        <v>0.2995146084096272</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1803068574593811</v>
+        <v>0.1773655013904596</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2204448884661999</v>
+        <v>0.2200862618278528</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2342843921362718</v>
+        <v>0.2353756415042763</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2325307410316063</v>
+        <v>0.2318520799156657</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1546494205455556</v>
+        <v>0.154404244623724</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.05816223684285495</v>
+        <v>0.05799976718428756</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1742523046432539</v>
+        <v>0.1752026775244972</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1469358566371435</v>
+        <v>0.1430604787423085</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1629850551671617</v>
+        <v>0.1634901144605966</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.09354377969224902</v>
+        <v>0.09150855348385445</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1866520763358625</v>
+        <v>0.187188149063558</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1489676501695371</v>
+        <v>0.1479441135052222</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1237644347160332</v>
+        <v>0.1271207086116573</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.08417449122960519</v>
+        <v>0.08157081009386236</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1906477487209478</v>
+        <v>0.1949826920052845</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1615294228720648</v>
+        <v>0.1616831033970582</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1539748655922846</v>
+        <v>0.1512956241920966</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1274139850796678</v>
+        <v>0.1299100672099395</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2730062109574105</v>
+        <v>0.2770671726628514</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2458475257089343</v>
+        <v>0.2421241527244651</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2524019909208641</v>
+        <v>0.2480602622856518</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1747266924170369</v>
+        <v>0.1702168482036595</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2844162885706212</v>
+        <v>0.2885960414403007</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2485973193184428</v>
+        <v>0.2436606816816762</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1953667570034835</v>
+        <v>0.1939187852073805</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1354115685901249</v>
+        <v>0.1364018587354608</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2625930838359329</v>
+        <v>0.2693216897134559</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2293905276071839</v>
+        <v>0.2304956753748408</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2075034803465455</v>
+        <v>0.208327424970484</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.1364783754169407</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.1763121284083928</v>
+        <v>0.1763121284083927</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.1431465856983411</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.09201424695372039</v>
+        <v>0.09194109372031108</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1190339641773308</v>
+        <v>0.1173806999202617</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1141163213115135</v>
+        <v>0.1145703690780861</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1402992463100249</v>
+        <v>0.142426510571033</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.140427430611087</v>
+        <v>0.1387651734851147</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1734555379521114</v>
+        <v>0.1745370069246881</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1096523829091399</v>
+        <v>0.1090872894128698</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1525689157106487</v>
+        <v>0.1500294671052548</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1230995122198063</v>
+        <v>0.1247311186773481</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1532587246358763</v>
+        <v>0.1534777894721273</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.121700620716693</v>
+        <v>0.1201207179869872</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.154667904904074</v>
+        <v>0.1541202197647837</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.145027982993199</v>
+        <v>0.1457990648987754</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1764247018435941</v>
+        <v>0.1738257822659446</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1729783927617047</v>
+        <v>0.1743532235113113</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2032650464291987</v>
+        <v>0.2068716105697833</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1996089716949111</v>
+        <v>0.1973196586465234</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2356828052452167</v>
+        <v>0.2375142159139935</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1660904168841908</v>
+        <v>0.1647612543853511</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2022858542089925</v>
+        <v>0.2037972798109207</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1634742159308883</v>
+        <v>0.1640379168582845</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1965616905295901</v>
+        <v>0.1961529542093477</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1666312478723541</v>
+        <v>0.160509329855312</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1937770685146852</v>
+        <v>0.1936060490852545</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.1803797479001518</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.1521628661510464</v>
+        <v>0.1521628661510465</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.1516424569112854</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1298389859818934</v>
+        <v>0.1307996927655934</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1137770276010416</v>
+        <v>0.1127071463582216</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1524405478281559</v>
+        <v>0.1526721815154155</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1254866073021664</v>
+        <v>0.1266885413903914</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1258231600119478</v>
+        <v>0.1284271413388911</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1694203854479895</v>
+        <v>0.1668883469132552</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1744089828864835</v>
+        <v>0.1746187225056895</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.14511419117848</v>
+        <v>0.143020267604885</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1358179825963618</v>
+        <v>0.1354374610951989</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1499231315029543</v>
+        <v>0.1475919975944702</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.172728757400935</v>
+        <v>0.1736289064769377</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1417573174474206</v>
+        <v>0.1415488253531217</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1828392615053562</v>
+        <v>0.1831689981720664</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1705407934930719</v>
+        <v>0.1691733601864109</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2104408915057807</v>
+        <v>0.208261894770239</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1763454425512465</v>
+        <v>0.1774815528776691</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.179357017127342</v>
+        <v>0.1805587104695425</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2261537397073169</v>
+        <v>0.2251122167123134</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2370535075686388</v>
+        <v>0.2357887718728714</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1903251051286278</v>
+        <v>0.1916308429682031</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1733909465463271</v>
+        <v>0.1713226262104558</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1880573755186088</v>
+        <v>0.1882734744087981</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.2127370692829618</v>
+        <v>0.2164767649245</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1760266389584768</v>
+        <v>0.1764626465061148</v>
       </c>
     </row>
     <row r="28">
@@ -1785,7 +1785,7 @@
         <v>0.1784961065829205</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.1710752985301051</v>
+        <v>0.171075298530105</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1098455464763209</v>
+        <v>0.1112850688584412</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1516289655994046</v>
+        <v>0.153387701039976</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1570254086604667</v>
+        <v>0.1570121827020046</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1561463603124457</v>
+        <v>0.1559238264511973</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.1368983096644281</v>
+        <v>0.1361725519277852</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1974121597492258</v>
+        <v>0.1971348882414079</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1739914460676</v>
+        <v>0.1737867581413026</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.162215211839431</v>
+        <v>0.1617575678300949</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1276574904101917</v>
+        <v>0.127935010236748</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.1780946611697248</v>
+        <v>0.1771276022033057</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.167613575970413</v>
+        <v>0.169082959754227</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1620946296369999</v>
+        <v>0.1624092396576425</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1328646971733349</v>
+        <v>0.1350416489880544</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1802338987128513</v>
+        <v>0.1796858143168582</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1826807526177207</v>
+        <v>0.1837775042048599</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1831883927307408</v>
+        <v>0.1825625650796149</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1623005506536087</v>
+        <v>0.161551498502343</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.2259863696221692</v>
+        <v>0.2253540689922032</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.2004033091940753</v>
+        <v>0.2013686481608608</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1831434492571926</v>
+        <v>0.1831877193253705</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1445007979349868</v>
+        <v>0.1441176397000261</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.1979878712914117</v>
+        <v>0.1970773354030113</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.1876944203854455</v>
+        <v>0.1877174176137923</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.1795529247436644</v>
+        <v>0.1793181573559217</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>17538</v>
+        <v>17543</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>46666</v>
+        <v>45870</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>37974</v>
+        <v>38388</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>43238</v>
+        <v>43681</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>13795</v>
+        <v>14154</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>41468</v>
+        <v>40321</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>27235</v>
+        <v>27191</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>52452</v>
+        <v>52048</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>35622</v>
+        <v>35004</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>94418</v>
+        <v>94960</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>72377</v>
+        <v>70886</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>100028</v>
+        <v>101424</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>37619</v>
+        <v>39220</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>75908</v>
+        <v>74459</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>65979</v>
+        <v>64810</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>70905</v>
+        <v>70064</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>32917</v>
+        <v>31176</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>67988</v>
+        <v>68404</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>49867</v>
+        <v>49755</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>75330</v>
+        <v>74857</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>63205</v>
+        <v>61158</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>134987</v>
+        <v>135061</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>107180</v>
+        <v>107860</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>135660</v>
+        <v>135232</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>53781</v>
+        <v>53263</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>58365</v>
+        <v>58047</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>56178</v>
+        <v>57695</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>89217</v>
+        <v>86830</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>68111</v>
+        <v>68812</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>82236</v>
+        <v>83044</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>93471</v>
+        <v>92008</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>63723</v>
+        <v>62207</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>130241</v>
+        <v>131952</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>150859</v>
+        <v>149004</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>158898</v>
+        <v>160665</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>158739</v>
+        <v>160433</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>85467</v>
+        <v>86275</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>92544</v>
+        <v>92484</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>88643</v>
+        <v>88956</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>132767</v>
+        <v>132028</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>102432</v>
+        <v>100943</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>118623</v>
+        <v>118367</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>131503</v>
+        <v>132570</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>91358</v>
+        <v>91986</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>177232</v>
+        <v>176483</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>201579</v>
+        <v>198417</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>210325</v>
+        <v>210191</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>211716</v>
+        <v>210737</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>18366</v>
+        <v>17623</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>40071</v>
+        <v>40216</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>42749</v>
+        <v>41835</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>52878</v>
+        <v>53339</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>35591</v>
+        <v>36407</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>62872</v>
+        <v>62278</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>43571</v>
+        <v>45865</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>66364</v>
+        <v>65179</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>59446</v>
+        <v>59011</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>109588</v>
+        <v>110747</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>92203</v>
+        <v>92797</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>125328</v>
+        <v>125423</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>38082</v>
+        <v>38191</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>65545</v>
+        <v>66352</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>67919</v>
+        <v>68018</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>79793</v>
+        <v>78779</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>62688</v>
+        <v>62232</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>94358</v>
+        <v>93191</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>71788</v>
+        <v>73034</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>90725</v>
+        <v>91485</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>91517</v>
+        <v>92052</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>150994</v>
+        <v>150837</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>131176</v>
+        <v>131403</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>161667</v>
+        <v>162225</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>23721</v>
+        <v>23946</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>53228</v>
+        <v>54488</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>63079</v>
+        <v>62441</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>28421</v>
+        <v>29878</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>34098</v>
+        <v>33963</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>72071</v>
+        <v>71754</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>54703</v>
+        <v>53924</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>48723</v>
+        <v>49138</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>62823</v>
+        <v>62227</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>134296</v>
+        <v>133336</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>126279</v>
+        <v>125996</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>85688</v>
+        <v>86885</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>44768</v>
+        <v>45379</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>85599</v>
+        <v>84486</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>93867</v>
+        <v>94298</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>56265</v>
+        <v>58187</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>56878</v>
+        <v>58434</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>104740</v>
+        <v>106351</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>84151</v>
+        <v>82790</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>76646</v>
+        <v>76387</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>95170</v>
+        <v>94589</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>181296</v>
+        <v>179319</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>169265</v>
+        <v>169891</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>124684</v>
+        <v>126052</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>22270</v>
+        <v>22318</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>29296</v>
+        <v>30362</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>20704</v>
+        <v>20269</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>15020</v>
+        <v>15770</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>30238</v>
+        <v>30659</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>27906</v>
+        <v>29416</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>40206</v>
+        <v>40052</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>26664</v>
+        <v>25938</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>58048</v>
+        <v>58215</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>65573</v>
+        <v>64367</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>66616</v>
+        <v>66038</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>46331</v>
+        <v>45527</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>43680</v>
+        <v>43168</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>54235</v>
+        <v>54118</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>40269</v>
+        <v>41101</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>30664</v>
+        <v>31124</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>53778</v>
+        <v>54330</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>53105</v>
+        <v>52976</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>65323</v>
+        <v>64857</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>40820</v>
+        <v>40154</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>88938</v>
+        <v>88793</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>98229</v>
+        <v>98687</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>98390</v>
+        <v>98103</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>66704</v>
+        <v>66598</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>15631</v>
+        <v>15587</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>47742</v>
+        <v>48002</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>38662</v>
+        <v>37643</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>43812</v>
+        <v>43948</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>25734</v>
+        <v>25174</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>51880</v>
+        <v>52029</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>40104</v>
+        <v>39829</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>31669</v>
+        <v>32528</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>45779</v>
+        <v>44363</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>105224</v>
+        <v>107617</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>85988</v>
+        <v>86070</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>80790</v>
+        <v>79384</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>34243</v>
+        <v>34913</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>74799</v>
+        <v>75911</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>64688</v>
+        <v>63708</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>67849</v>
+        <v>66682</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>48068</v>
+        <v>46827</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>79053</v>
+        <v>80215</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>66926</v>
+        <v>65597</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>49991</v>
+        <v>49621</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>73644</v>
+        <v>74183</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>144933</v>
+        <v>148646</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>122113</v>
+        <v>122701</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>108876</v>
+        <v>109308</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>56504</v>
+        <v>56459</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>78767</v>
+        <v>77673</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>70034</v>
+        <v>70312</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>99131</v>
+        <v>100634</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>89198</v>
+        <v>88142</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>119585</v>
+        <v>120330</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>70639</v>
+        <v>70275</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>114112</v>
+        <v>112212</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>153784</v>
+        <v>155822</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>207075</v>
+        <v>207371</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>153089</v>
+        <v>151102</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>224966</v>
+        <v>224169</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>89058</v>
+        <v>89532</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>116744</v>
+        <v>115024</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>106158</v>
+        <v>107001</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>143621</v>
+        <v>146169</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>126789</v>
+        <v>125335</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>162486</v>
+        <v>163748</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>106997</v>
+        <v>106141</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>151297</v>
+        <v>152427</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>204223</v>
+        <v>204927</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>265583</v>
+        <v>265031</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>209608</v>
+        <v>201907</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>281850</v>
+        <v>281601</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>94425</v>
+        <v>95123</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>85152</v>
+        <v>84351</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>112581</v>
+        <v>112752</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>98605</v>
+        <v>99550</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>96266</v>
+        <v>98258</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>132124</v>
+        <v>130150</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>136246</v>
+        <v>136410</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>118008</v>
+        <v>116305</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>202685</v>
+        <v>202118</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>229123</v>
+        <v>225561</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>262498</v>
+        <v>263866</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>226668</v>
+        <v>226335</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>132969</v>
+        <v>133209</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>127634</v>
+        <v>126611</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>155415</v>
+        <v>153806</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>138569</v>
+        <v>139462</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>137224</v>
+        <v>138143</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>176368</v>
+        <v>175556</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>185183</v>
+        <v>184195</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>154773</v>
+        <v>155835</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>258757</v>
+        <v>255670</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>287403</v>
+        <v>287733</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>323299</v>
+        <v>328982</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>281464</v>
+        <v>282161</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>356348</v>
+        <v>361018</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>509525</v>
+        <v>515435</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>514088</v>
+        <v>514045</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>539066</v>
+        <v>538298</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>456279</v>
+        <v>453860</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>672690</v>
+        <v>671745</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>581536</v>
+        <v>580852</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>582723</v>
+        <v>581079</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>839611</v>
+        <v>841436</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>1205324</v>
+        <v>1198779</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>1108972</v>
+        <v>1118694</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>1141892</v>
+        <v>1144108</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>431024</v>
+        <v>438086</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>605647</v>
+        <v>603805</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>598081</v>
+        <v>601672</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>632424</v>
+        <v>630263</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>540944</v>
+        <v>538448</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>770058</v>
+        <v>767903</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>669814</v>
+        <v>673040</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>657904</v>
+        <v>658063</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>950390</v>
+        <v>947870</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>1339959</v>
+        <v>1333796</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>1241832</v>
+        <v>1241984</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>1264879</v>
+        <v>1263225</v>
       </c>
     </row>
     <row r="40">
